--- a/raw_data/20200818_saline/20200818_Sensor3_Test_28.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_28.xlsx
@@ -1,810 +1,1226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6282E-5BB0-4CE7-88A4-9BBA4C5FA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>24859.111380</v>
+        <v>24859.111379999998</v>
       </c>
       <c r="B2" s="1">
-        <v>6.905309</v>
+        <v>6.9053089999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.060000</v>
+        <v>1144.06</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.104000</v>
+        <v>-261.10399999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24869.881536</v>
+        <v>24869.881536000001</v>
       </c>
       <c r="G2" s="1">
-        <v>6.908300</v>
+        <v>6.9082999999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.820000</v>
+        <v>1165.82</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.718000</v>
+        <v>-218.71799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24880.353545</v>
+        <v>24880.353545000002</v>
       </c>
       <c r="L2" s="1">
-        <v>6.911209</v>
+        <v>6.9112090000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.380000</v>
+        <v>1193.3800000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.046000</v>
+        <v>-151.04599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>24890.875673</v>
+        <v>24890.875672999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.914132</v>
+        <v>6.9141320000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.814000</v>
+        <v>-128.81399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>24901.792125</v>
       </c>
       <c r="V2" s="1">
-        <v>6.917164</v>
+        <v>6.9171639999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>1208.050000</v>
+        <v>1208.05</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.631000</v>
+        <v>-107.631</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>24912.254734</v>
+        <v>24912.254733999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.920071</v>
+        <v>6.9200710000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.320000</v>
+        <v>1215.32</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.012900</v>
+        <v>-90.012900000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>24923.123576</v>
+        <v>24923.123576000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.923090</v>
+        <v>6.9230900000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.324500</v>
+        <v>-85.3245</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>24933.499377</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.925972</v>
+        <v>6.9259719999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.377200</v>
+        <v>-88.377200000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>24944.091972</v>
+        <v>24944.091971999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.928914</v>
+        <v>6.9289139999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.300000</v>
+        <v>1234.3</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.957200</v>
+        <v>-99.9572</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>24955.101141</v>
+        <v>24955.101140999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.931973</v>
+        <v>6.9319730000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.913000</v>
+        <v>-118.913</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>24966.216040</v>
+        <v>24966.216039999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.935060</v>
+        <v>6.93506</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.112000</v>
+        <v>-136.11199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>24977.051625</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.938070</v>
+        <v>6.9380699999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-216.765000</v>
+        <v>-216.76499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>24987.727018</v>
+        <v>24987.727018000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.941035</v>
+        <v>6.9410350000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-351.261000</v>
+        <v>-351.26100000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>24997.825068</v>
+        <v>24997.825067999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.943840</v>
+        <v>6.9438399999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1472.030000</v>
+        <v>1472.03</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.352000</v>
+        <v>-570.35199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>25008.575822</v>
+        <v>25008.575821999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.946827</v>
+        <v>6.9468269999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1600.880000</v>
+        <v>1600.88</v>
       </c>
       <c r="BV2" s="1">
-        <v>-817.956000</v>
+        <v>-817.95600000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>25019.240304</v>
+        <v>25019.240303999999</v>
       </c>
       <c r="BY2" s="1">
         <v>6.949789</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1750.520000</v>
+        <v>1750.52</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1088.230000</v>
+        <v>-1088.23</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>25030.243089</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.952845</v>
+        <v>6.9528449999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2161.310000</v>
+        <v>2161.31</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1745.790000</v>
+        <v>-1745.79</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>24859.506196</v>
+        <v>24859.506195999998</v>
       </c>
       <c r="B3" s="1">
-        <v>6.905418</v>
+        <v>6.9054180000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.010000</v>
+        <v>1144.01</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.813000</v>
+        <v>-260.81299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>24870.256485</v>
+        <v>24870.256485000002</v>
       </c>
       <c r="G3" s="1">
-        <v>6.908405</v>
+        <v>6.9084050000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.250000</v>
+        <v>1165.25</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.863000</v>
+        <v>-218.863</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>24880.764231</v>
+        <v>24880.764231000001</v>
       </c>
       <c r="L3" s="1">
-        <v>6.911323</v>
+        <v>6.9113230000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.470000</v>
+        <v>1193.47</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.333000</v>
+        <v>-151.333</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>24891.253626</v>
+        <v>24891.253626000002</v>
       </c>
       <c r="Q3" s="1">
         <v>6.914237</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.810000</v>
+        <v>-128.81</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>24902.518302</v>
       </c>
       <c r="V3" s="1">
-        <v>6.917366</v>
+        <v>6.9173660000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1208.060000</v>
+        <v>1208.06</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.544000</v>
+        <v>-107.544</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>24912.986332</v>
@@ -813,438 +1229,438 @@
         <v>6.920274</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.064300</v>
+        <v>-90.064300000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>24923.467295</v>
+        <v>24923.467294999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.923185</v>
+        <v>6.9231850000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.335100</v>
+        <v>-85.335099999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>24933.883318</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.926079</v>
+        <v>6.9260789999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.372900</v>
+        <v>-88.372900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>24944.474356</v>
+        <v>24944.474355999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.929021</v>
+        <v>6.9290209999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.963800</v>
+        <v>-99.963800000000006</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>24955.802979</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.932167</v>
+        <v>6.9321669999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.895000</v>
+        <v>-118.895</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>24966.913893</v>
+        <v>24966.913893000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.935254</v>
+        <v>6.9352539999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.052000</v>
+        <v>-136.05199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>24977.161704</v>
+        <v>24977.161703999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.938100</v>
+        <v>6.9381000000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-216.761000</v>
+        <v>-216.761</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>24987.835126</v>
+        <v>24987.835126000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>6.941065</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="BL3" s="1">
-        <v>-351.238000</v>
+        <v>-351.238</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>24998.234236</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.943954</v>
+        <v>6.9439539999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1472.100000</v>
+        <v>1472.1</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.411000</v>
+        <v>-570.41099999999994</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>25009.030190</v>
+        <v>25009.030190000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.946953</v>
+        <v>6.9469529999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1600.930000</v>
+        <v>1600.93</v>
       </c>
       <c r="BV3" s="1">
-        <v>-818.122000</v>
+        <v>-818.12199999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>25019.726415</v>
+        <v>25019.726415000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.949924</v>
+        <v>6.9499240000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1750.420000</v>
+        <v>1750.42</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1088.060000</v>
+        <v>-1088.06</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>25030.819717</v>
+        <v>25030.819716999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.953005</v>
+        <v>6.9530050000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2159.450000</v>
+        <v>2159.4499999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1744.850000</v>
+        <v>-1744.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>24859.846948</v>
+        <v>24859.846947999999</v>
       </c>
       <c r="B4" s="1">
         <v>6.905513</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.030000</v>
+        <v>1144.03</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.992000</v>
+        <v>-260.99200000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>24870.597747</v>
       </c>
       <c r="G4" s="1">
-        <v>6.908499</v>
+        <v>6.9084989999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.060000</v>
+        <v>1166.06</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.147000</v>
+        <v>-218.14699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>24881.414027</v>
+        <v>24881.414026999999</v>
       </c>
       <c r="L4" s="1">
-        <v>6.911504</v>
+        <v>6.9115039999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.180000</v>
+        <v>1193.18</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.253000</v>
+        <v>-151.25299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>24891.949551</v>
+        <v>24891.949551000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.914430</v>
+        <v>6.9144300000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.758000</v>
+        <v>-128.75800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>24902.862490</v>
+        <v>24902.86249</v>
       </c>
       <c r="V4" s="1">
-        <v>6.917462</v>
+        <v>6.9174620000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.070000</v>
+        <v>1208.07</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.568000</v>
+        <v>-107.568</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>24913.335021</v>
+        <v>24913.335020999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.920371</v>
+        <v>6.9203710000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.140000</v>
+        <v>1215.1400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.066800</v>
+        <v>-90.066800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>24923.810564</v>
+        <v>24923.810563999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.923281</v>
+        <v>6.9232810000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.308400</v>
+        <v>-85.308400000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>24934.233001</v>
+        <v>24934.233001000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.926176</v>
+        <v>6.9261759999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.364400</v>
+        <v>-88.364400000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>24945.133075</v>
+        <v>24945.133075000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.929204</v>
+        <v>6.9292040000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.300000</v>
+        <v>1234.3</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.958800</v>
+        <v>-99.958799999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>24956.223091</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.932284</v>
+        <v>6.9322840000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.913000</v>
+        <v>-118.913</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>24967.319627</v>
+        <v>24967.319627000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.935367</v>
+        <v>6.9353670000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.087000</v>
+        <v>-136.08699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>24977.509895</v>
+        <v>24977.509894999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.938197</v>
+        <v>6.9381969999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-216.769000</v>
+        <v>-216.76900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>24988.208602</v>
+        <v>24988.208601999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.941169</v>
+        <v>6.9411690000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-351.263000</v>
+        <v>-351.26299999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>24998.629053</v>
+        <v>24998.629053000001</v>
       </c>
       <c r="BO4" s="1">
         <v>6.944064</v>
       </c>
       <c r="BP4" s="1">
-        <v>1472.060000</v>
+        <v>1472.06</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.363000</v>
+        <v>-570.36300000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>25009.453741</v>
+        <v>25009.453741000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.947070</v>
+        <v>6.9470700000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1600.780000</v>
+        <v>1600.78</v>
       </c>
       <c r="BV4" s="1">
-        <v>-818.143000</v>
+        <v>-818.14300000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>25020.175294</v>
+        <v>25020.175294000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.950049</v>
+        <v>6.9500489999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1750.220000</v>
+        <v>1750.22</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1088.300000</v>
+        <v>-1088.3</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>25031.352118</v>
+        <v>25031.352117999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.953153</v>
+        <v>6.9531530000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>2161.050000</v>
+        <v>2161.0500000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1745.990000</v>
+        <v>-1745.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>24860.188692</v>
       </c>
@@ -1252,148 +1668,148 @@
         <v>6.905608</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.920000</v>
+        <v>1143.92</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.772000</v>
+        <v>-260.77199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>24871.286181</v>
+        <v>24871.286180999999</v>
       </c>
       <c r="G5" s="1">
-        <v>6.908691</v>
+        <v>6.9086910000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.760000</v>
+        <v>1165.76</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.496000</v>
+        <v>-218.49600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>24881.777559</v>
+        <v>24881.777558999998</v>
       </c>
       <c r="L5" s="1">
-        <v>6.911605</v>
+        <v>6.9116049999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.490000</v>
+        <v>1193.49</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.333000</v>
+        <v>-151.333</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>24892.299688</v>
+        <v>24892.299687999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.914528</v>
+        <v>6.9145279999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.990000</v>
+        <v>1200.99</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.770000</v>
+        <v>-128.77000000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>24903.203737</v>
       </c>
       <c r="V5" s="1">
-        <v>6.917557</v>
+        <v>6.9175570000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.544000</v>
+        <v>-107.544</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>24913.684205</v>
+        <v>24913.684205000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.920468</v>
+        <v>6.9204679999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.144000</v>
+        <v>-90.144000000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>24924.458797</v>
+        <v>24924.458796999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.923461</v>
+        <v>6.9234609999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.306200</v>
+        <v>-85.306200000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>24934.957657</v>
+        <v>24934.957656999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.926377</v>
+        <v>6.9263769999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.331700</v>
+        <v>-88.331699999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>24945.581923</v>
+        <v>24945.581923000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.929328</v>
+        <v>6.9293279999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.981500</v>
+        <v>-99.981499999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>24956.614435</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.932393</v>
+        <v>6.9323930000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.887000</v>
+        <v>-118.887</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>24967.681203</v>
@@ -1402,1692 +1818,1692 @@
         <v>6.935467</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.065000</v>
+        <v>-136.065</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>24977.874454</v>
+        <v>24977.874454000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.938298</v>
+        <v>6.9382979999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-216.765000</v>
+        <v>-216.76499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>24988.602463</v>
+        <v>24988.602462999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.941278</v>
+        <v>6.9412779999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.980000</v>
+        <v>1359.98</v>
       </c>
       <c r="BL5" s="1">
-        <v>-351.242000</v>
+        <v>-351.24200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>24999.047676</v>
+        <v>24999.047675999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.944180</v>
+        <v>6.9441800000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1472.120000</v>
+        <v>1472.12</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.378000</v>
+        <v>-570.37800000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>25009.866908</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.947185</v>
+        <v>6.9471850000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1600.860000</v>
+        <v>1600.86</v>
       </c>
       <c r="BV5" s="1">
-        <v>-818.145000</v>
+        <v>-818.14499999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>25020.632575</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.950176</v>
+        <v>6.9501759999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1750.330000</v>
+        <v>1750.33</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1088.250000</v>
+        <v>-1088.25</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>25031.868481</v>
+        <v>25031.868481000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.953297</v>
+        <v>6.9532970000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2160.360000</v>
+        <v>2160.36</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1743.420000</v>
+        <v>-1743.42</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>24860.865271</v>
+        <v>24860.865270999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.905796</v>
+        <v>6.9057959999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.210000</v>
+        <v>1144.21</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.259000</v>
+        <v>-261.25900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>24871.631395</v>
       </c>
       <c r="G6" s="1">
-        <v>6.908786</v>
+        <v>6.9087860000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.810000</v>
+        <v>1165.81</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.390000</v>
+        <v>-218.39</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>24882.125271</v>
+        <v>24882.125271000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.911701</v>
+        <v>6.9117009999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.180000</v>
+        <v>1193.18</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.208000</v>
+        <v>-151.208</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>24892.646887</v>
+        <v>24892.646886999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.914624</v>
+        <v>6.9146239999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.842000</v>
+        <v>-128.84200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>24903.867386</v>
+        <v>24903.867386000002</v>
       </c>
       <c r="V6" s="1">
-        <v>6.917741</v>
+        <v>6.9177410000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.990000</v>
+        <v>1207.99</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.510000</v>
+        <v>-107.51</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>24914.334992</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.920649</v>
+        <v>6.9206490000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.155700</v>
+        <v>-90.155699999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>24924.842701</v>
+        <v>24924.842701000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.923567</v>
+        <v>6.9235670000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.397800</v>
+        <v>-85.397800000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>24935.289477</v>
+        <v>24935.289476999998</v>
       </c>
       <c r="AK6" s="1">
         <v>6.926469</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.369400</v>
+        <v>-88.369399999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>24945.942018</v>
+        <v>24945.942018000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.929428</v>
+        <v>6.9294279999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.290000</v>
+        <v>1234.29</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.941500</v>
+        <v>-99.941500000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>24956.976384</v>
+        <v>24956.976384000001</v>
       </c>
       <c r="AU6" s="1">
         <v>6.932493</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.896000</v>
+        <v>-118.896</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>24968.040276</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.935567</v>
+        <v>6.9355669999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.078000</v>
+        <v>-136.078</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>24978.298055</v>
+        <v>24978.298054999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.938416</v>
+        <v>6.9384160000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-216.767000</v>
+        <v>-216.767</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>24989.065689</v>
+        <v>24989.065688999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.941407</v>
+        <v>6.9414069999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL6" s="1">
-        <v>-351.253000</v>
+        <v>-351.25299999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>24999.445002</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.944290</v>
+        <v>6.9442899999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1472.050000</v>
+        <v>1472.05</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.419000</v>
+        <v>-570.41899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>25010.281565</v>
+        <v>25010.281565000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.947300</v>
+        <v>6.9473000000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1600.810000</v>
+        <v>1600.81</v>
       </c>
       <c r="BV6" s="1">
-        <v>-818.304000</v>
+        <v>-818.30399999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>25021.078974</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.950300</v>
+        <v>6.9503000000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1750.410000</v>
+        <v>1750.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1088.250000</v>
+        <v>-1088.25</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>25032.410574</v>
+        <v>25032.410574000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.953447</v>
+        <v>6.9534469999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>2160.230000</v>
+        <v>2160.23</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1745.510000</v>
+        <v>-1745.51</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>24861.216402</v>
+        <v>24861.216401999998</v>
       </c>
       <c r="B7" s="1">
-        <v>6.905893</v>
+        <v>6.9058929999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.310000</v>
+        <v>1144.31</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.248000</v>
+        <v>-261.24799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>24871.975122</v>
       </c>
       <c r="G7" s="1">
-        <v>6.908882</v>
+        <v>6.9088820000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.080000</v>
+        <v>1166.08</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.788000</v>
+        <v>-218.78800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>24882.775508</v>
+        <v>24882.775507999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.911882</v>
+        <v>6.9118820000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.490000</v>
+        <v>1193.49</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.323000</v>
+        <v>-151.32300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>24893.312518</v>
+        <v>24893.312517999999</v>
       </c>
       <c r="Q7" s="1">
         <v>6.914809</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.848000</v>
+        <v>-128.84800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>24904.234953</v>
+        <v>24904.234952999999</v>
       </c>
       <c r="V7" s="1">
-        <v>6.917843</v>
+        <v>6.9178430000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.620000</v>
+        <v>-107.62</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>24914.730800</v>
+        <v>24914.730800000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.920759</v>
+        <v>6.9207590000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.754300</v>
+        <v>-89.754300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>24925.185436</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.923663</v>
+        <v>6.9236630000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.302300</v>
+        <v>-85.302300000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24935.637172</v>
+        <v>24935.637171999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.926566</v>
+        <v>6.9265660000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.379900</v>
+        <v>-88.379900000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>24946.300130</v>
+        <v>24946.30013</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.929528</v>
+        <v>6.9295280000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.967400</v>
+        <v>-99.967399999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>24957.389186</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.932608</v>
+        <v>6.9326080000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.040000</v>
+        <v>1244.04</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.901000</v>
+        <v>-118.901</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>24968.462372</v>
+        <v>24968.462372000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.935684</v>
+        <v>6.9356840000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.101000</v>
+        <v>-136.101</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>24978.596657</v>
+        <v>24978.596656999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.938499</v>
+        <v>6.9384990000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-216.753000</v>
+        <v>-216.75299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>24989.342952</v>
+        <v>24989.342951999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>6.941484</v>
       </c>
       <c r="BK7" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-351.277000</v>
+        <v>-351.27699999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>24999.868058</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.944408</v>
+        <v>6.9444080000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1472.150000</v>
+        <v>1472.15</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.410000</v>
+        <v>-570.41</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>25010.696219</v>
+        <v>25010.696219000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.947416</v>
+        <v>6.9474159999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1600.870000</v>
+        <v>1600.87</v>
       </c>
       <c r="BV7" s="1">
-        <v>-818.348000</v>
+        <v>-818.34799999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>25021.538269</v>
+        <v>25021.538269000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.950427</v>
+        <v>6.9504270000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.300000</v>
+        <v>1750.3</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1088.200000</v>
+        <v>-1088.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>25032.948239</v>
+        <v>25032.948239000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.953597</v>
+        <v>6.9535970000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>2161.910000</v>
+        <v>2161.91</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1744.070000</v>
+        <v>-1744.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>24861.556162</v>
+        <v>24861.556162000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.905988</v>
+        <v>6.9059879999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.060000</v>
+        <v>1144.06</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.907000</v>
+        <v>-260.90699999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>24872.624418</v>
+        <v>24872.624417999999</v>
       </c>
       <c r="G8" s="1">
-        <v>6.909062</v>
+        <v>6.9090619999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.700000</v>
+        <v>1165.7</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.294000</v>
+        <v>-218.29400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>24883.160404</v>
+        <v>24883.160403999998</v>
       </c>
       <c r="L8" s="1">
-        <v>6.911989</v>
+        <v>6.9119890000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.150000</v>
+        <v>1193.1500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.218000</v>
+        <v>-151.21799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>24893.693478</v>
+        <v>24893.693478000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.914915</v>
+        <v>6.9149149999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.759000</v>
+        <v>-128.75899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>24904.579177</v>
       </c>
       <c r="V8" s="1">
-        <v>6.917939</v>
+        <v>6.9179389999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>1208.000000</v>
+        <v>1208</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.479000</v>
+        <v>-107.479</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>24915.078954</v>
+        <v>24915.078954000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.920855</v>
+        <v>6.9208550000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.140500</v>
+        <v>-90.140500000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>24925.527180</v>
+        <v>24925.527180000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.923758</v>
+        <v>6.9237580000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.281100</v>
+        <v>-85.281099999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>24936.059727</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.926683</v>
+        <v>6.9266829999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.386400</v>
+        <v>-88.386399999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>24946.710543</v>
+        <v>24946.710543000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.929642</v>
+        <v>6.9296420000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.928800</v>
+        <v>-99.928799999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>24957.707159</v>
+        <v>24957.707159000001</v>
       </c>
       <c r="AU8" s="1">
         <v>6.932696</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.907000</v>
+        <v>-118.907</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>24968.757994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.935766</v>
+        <v>6.9357660000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.124000</v>
+        <v>-136.124</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>24978.958742</v>
+        <v>24978.958741999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.938600</v>
+        <v>6.9386000000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-216.767000</v>
+        <v>-216.767</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>24989.731319</v>
+        <v>24989.731318999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>6.941592</v>
       </c>
       <c r="BK8" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL8" s="1">
-        <v>-351.262000</v>
+        <v>-351.262</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>25000.263865</v>
+        <v>25000.263865000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.944518</v>
+        <v>6.9445180000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1472.170000</v>
+        <v>1472.17</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.416000</v>
+        <v>-570.41600000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>25011.109916</v>
+        <v>25011.109916000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.947531</v>
+        <v>6.9475309999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1600.880000</v>
+        <v>1600.88</v>
       </c>
       <c r="BV8" s="1">
-        <v>-818.478000</v>
+        <v>-818.47799999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>25021.987257</v>
+        <v>25021.987257000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.950552</v>
+        <v>6.9505520000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1750.480000</v>
+        <v>1750.48</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1088.300000</v>
+        <v>-1088.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>25033.490397</v>
+        <v>25033.490397000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.953747</v>
+        <v>6.9537469999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2159.900000</v>
+        <v>2159.9</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1744.340000</v>
+        <v>-1744.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>24862.203478</v>
+        <v>24862.203477999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.906168</v>
+        <v>6.9061680000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.160000</v>
+        <v>1144.1600000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.945000</v>
+        <v>-260.94499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>24873.013250</v>
+        <v>24873.01325</v>
       </c>
       <c r="G9" s="1">
-        <v>6.909170</v>
+        <v>6.9091699999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.910000</v>
+        <v>1165.9100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.291000</v>
+        <v>-218.291</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>24883.507604</v>
+        <v>24883.507603999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.912085</v>
+        <v>6.9120850000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.330000</v>
+        <v>1193.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.272000</v>
+        <v>-151.27199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>24894.039690</v>
+        <v>24894.039690000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.915011</v>
+        <v>6.9150109999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.742000</v>
+        <v>-128.74199999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>24904.920887</v>
       </c>
       <c r="V9" s="1">
-        <v>6.918034</v>
+        <v>6.9180339999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>1208.030000</v>
+        <v>1208.03</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.497000</v>
+        <v>-107.497</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>24915.425657</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.920952</v>
+        <v>6.9209519999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.929600</v>
+        <v>-89.929599999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>24925.944348</v>
+        <v>24925.944348000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.923873</v>
+        <v>6.9238730000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.308600</v>
+        <v>-85.308599999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>24936.341982</v>
+        <v>24936.341982000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.926762</v>
+        <v>6.9267620000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.350900</v>
+        <v>-88.350899999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>24947.020847</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.929728</v>
+        <v>6.9297279999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.961000</v>
+        <v>-99.960999999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>24958.070689</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.932797</v>
+        <v>6.9327969999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.900000</v>
+        <v>-118.9</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>24969.116594</v>
+        <v>24969.116593999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.935866</v>
+        <v>6.9358659999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.091000</v>
+        <v>-136.09100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>24979.314869</v>
+        <v>24979.314869000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.938699</v>
+        <v>6.9386989999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.670000</v>
+        <v>1291.67</v>
       </c>
       <c r="BG9" s="1">
-        <v>-216.779000</v>
+        <v>-216.779</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>24990.481308</v>
+        <v>24990.481307999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.941800</v>
+        <v>6.9417999999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL9" s="1">
-        <v>-351.238000</v>
+        <v>-351.238</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>25000.687449</v>
+        <v>25000.687449000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.944635</v>
+        <v>6.9446349999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1472.040000</v>
+        <v>1472.04</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.406000</v>
+        <v>-570.40599999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>25011.525034</v>
+        <v>25011.525033999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.947646</v>
+        <v>6.9476459999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1600.910000</v>
+        <v>1600.91</v>
       </c>
       <c r="BV9" s="1">
-        <v>-818.658000</v>
+        <v>-818.65800000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>25022.407789</v>
+        <v>25022.407789000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.950669</v>
+        <v>6.9506690000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1750.460000</v>
+        <v>1750.46</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1088.150000</v>
+        <v>-1088.1500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>25034.028062</v>
+        <v>25034.028062000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.953897</v>
+        <v>6.9538970000000004</v>
       </c>
       <c r="CE9" s="1">
-        <v>2161.640000</v>
+        <v>2161.64</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1746.040000</v>
+        <v>-1746.04</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>24862.578949</v>
+        <v>24862.578948999999</v>
       </c>
       <c r="B10" s="1">
-        <v>6.906272</v>
+        <v>6.9062720000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.021000</v>
+        <v>-261.02100000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>24873.356977</v>
+        <v>24873.356976999999</v>
       </c>
       <c r="G10" s="1">
-        <v>6.909266</v>
+        <v>6.9092659999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.090000</v>
+        <v>1166.0899999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.593000</v>
+        <v>-218.59299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>24883.851331</v>
+        <v>24883.851331000002</v>
       </c>
       <c r="L10" s="1">
-        <v>6.912181</v>
+        <v>6.9121810000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.360000</v>
+        <v>1193.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.175000</v>
+        <v>-151.17500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>24894.390821</v>
+        <v>24894.390821000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.915109</v>
+        <v>6.9151090000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.804000</v>
+        <v>-128.804</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>24905.336535</v>
+        <v>24905.336534999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.918149</v>
+        <v>6.9181489999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>1208.030000</v>
+        <v>1208.03</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.485000</v>
+        <v>-107.485</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>24915.841338</v>
+        <v>24915.841337999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.921067</v>
+        <v>6.9210669999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.080000</v>
+        <v>1215.08</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.946000</v>
+        <v>-89.945999999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>24926.223098</v>
+        <v>24926.223097999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.923951</v>
+        <v>6.9239509999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.356200</v>
+        <v>-85.356200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>24936.691133</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.926859</v>
+        <v>6.9268590000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.368800</v>
+        <v>-88.368799999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>24947.383920</v>
+        <v>24947.38392</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.929829</v>
+        <v>6.9298289999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.956900</v>
+        <v>-99.956900000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>24958.436240</v>
+        <v>24958.436239999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.932899</v>
+        <v>6.9328989999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.912000</v>
+        <v>-118.91200000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>24969.477186</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.935966</v>
+        <v>6.9359659999999996</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.081000</v>
+        <v>-136.08099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>24980.039989</v>
+        <v>24980.039989000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.938900</v>
+        <v>6.9389000000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-216.789000</v>
+        <v>-216.78899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>24990.881047</v>
+        <v>24990.881046999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.941911</v>
+        <v>6.9419110000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="BL10" s="1">
-        <v>-351.308000</v>
+        <v>-351.30799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>25001.087224</v>
+        <v>25001.087223999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.944746</v>
+        <v>6.9447460000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1472.040000</v>
+        <v>1472.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.433000</v>
+        <v>-570.43299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>25011.961515</v>
+        <v>25011.961514999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.947767</v>
+        <v>6.9477669999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1600.980000</v>
+        <v>1600.98</v>
       </c>
       <c r="BV10" s="1">
-        <v>-818.670000</v>
+        <v>-818.67</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>25022.828401</v>
+        <v>25022.828400999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.950786</v>
+        <v>6.9507859999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.430000</v>
+        <v>1750.43</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1088.230000</v>
+        <v>-1088.23</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>25034.880192</v>
+        <v>25034.880192000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.954133</v>
+        <v>6.9541329999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>2159.280000</v>
+        <v>2159.2800000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1745.230000</v>
+        <v>-1745.23</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>24862.993598</v>
+        <v>24862.993598000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.906387</v>
+        <v>6.9063869999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.360000</v>
+        <v>1144.3599999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.749000</v>
+        <v>-260.74900000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>24873.701233</v>
       </c>
       <c r="G11" s="1">
-        <v>6.909361</v>
+        <v>6.9093609999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.610000</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.631000</v>
+        <v>-218.631</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>24884.285362</v>
+        <v>24884.285361999999</v>
       </c>
       <c r="L11" s="1">
-        <v>6.912301</v>
+        <v>6.9123010000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.290000</v>
+        <v>1193.29</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.025000</v>
+        <v>-151.02500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>24894.809444</v>
+        <v>24894.809443999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.915225</v>
+        <v>6.9152250000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.851000</v>
+        <v>-128.851</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>24905.632646</v>
+        <v>24905.632645999998</v>
       </c>
       <c r="V11" s="1">
-        <v>6.918231</v>
+        <v>6.9182309999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.586000</v>
+        <v>-107.586</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>24916.122585</v>
+        <v>24916.122585000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.921145</v>
+        <v>6.9211450000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.340000</v>
+        <v>1215.3399999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.793600</v>
+        <v>-89.793599999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>24926.567290</v>
+        <v>24926.567289999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.924046</v>
+        <v>6.9240459999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.750000</v>
+        <v>1219.75</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.328600</v>
+        <v>-85.328599999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>24937.036845</v>
+        <v>24937.036844999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.926955</v>
+        <v>6.9269550000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.375500</v>
+        <v>-88.375500000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>24947.741006</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.929928</v>
+        <v>6.9299280000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.350000</v>
+        <v>1234.3499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.966400</v>
+        <v>-99.966399999999993</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>24959.163375</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.933101</v>
+        <v>6.9331009999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.918000</v>
+        <v>-118.91800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>24970.193942</v>
+        <v>24970.193942000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.936165</v>
+        <v>6.9361649999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.096000</v>
+        <v>-136.096</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>24980.428389</v>
+        <v>24980.428389000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.939008</v>
+        <v>6.9390080000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-216.773000</v>
+        <v>-216.773</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>24991.258501</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.942016</v>
+        <v>6.9420159999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="BL11" s="1">
-        <v>-351.244000</v>
+        <v>-351.24400000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>25001.504857</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.944862</v>
+        <v>6.9448619999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1472.070000</v>
+        <v>1472.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.406000</v>
+        <v>-570.40599999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>25012.701557</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.947973</v>
+        <v>6.9479730000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1600.980000</v>
+        <v>1600.98</v>
       </c>
       <c r="BV11" s="1">
-        <v>-818.647000</v>
+        <v>-818.64700000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>25023.555002</v>
+        <v>25023.555002000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.950988</v>
+        <v>6.9509879999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1750.340000</v>
+        <v>1750.34</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1088.260000</v>
+        <v>-1088.26</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>25035.109835</v>
+        <v>25035.109834999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.954197</v>
+        <v>6.9541969999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>2159.400000</v>
+        <v>2159.4</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.360000</v>
+        <v>-1745.36</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>24863.288190</v>
+        <v>24863.288189999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.906469</v>
+        <v>6.9064690000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.370000</v>
+        <v>1144.3699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.956000</v>
+        <v>-260.95600000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>24874.133769</v>
       </c>
       <c r="G12" s="1">
-        <v>6.909482</v>
+        <v>6.9094819999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.260000</v>
+        <v>1167.26</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.862000</v>
+        <v>-218.86199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>24884.564578</v>
+        <v>24884.564578000001</v>
       </c>
       <c r="L12" s="1">
-        <v>6.912379</v>
+        <v>6.9123789999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.390000</v>
+        <v>1193.3900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.998000</v>
+        <v>-150.99799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>24895.097124</v>
@@ -3096,420 +3512,420 @@
         <v>6.915305</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.828000</v>
+        <v>-128.828</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>24905.980838</v>
+        <v>24905.980837999999</v>
       </c>
       <c r="V12" s="1">
-        <v>6.918328</v>
+        <v>6.9183279999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1208.090000</v>
+        <v>1208.0899999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.524000</v>
+        <v>-107.524</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>24916.471720</v>
+        <v>24916.471720000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.921242</v>
+        <v>6.9212420000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.330000</v>
+        <v>1215.33</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.159500</v>
+        <v>-90.159499999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>24926.908075</v>
+        <v>24926.908074999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.924141</v>
+        <v>6.9241409999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.298800</v>
+        <v>-85.2988</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>24937.735243</v>
+        <v>24937.735242999999</v>
       </c>
       <c r="AK12" s="1">
         <v>6.927149</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.560000</v>
+        <v>1226.56</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.357600</v>
+        <v>-88.357600000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>24948.471649</v>
+        <v>24948.471648999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.930131</v>
+        <v>6.9301310000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.993200</v>
+        <v>-99.993200000000002</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>24959.527972</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.933202</v>
+        <v>6.9332019999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.908000</v>
+        <v>-118.908</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>24970.579824</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.936272</v>
+        <v>6.9362719999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.095000</v>
+        <v>-136.095</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>24980.789938</v>
+        <v>24980.789938000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.939108</v>
+        <v>6.9391080000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-216.754000</v>
+        <v>-216.75399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>24991.941029</v>
+        <v>24991.941029000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.942206</v>
+        <v>6.9422059999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.980000</v>
+        <v>1359.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-351.268000</v>
+        <v>-351.26799999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>25002.211192</v>
+        <v>25002.211191999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.945059</v>
+        <v>6.9450589999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1472.120000</v>
+        <v>1472.12</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.473000</v>
+        <v>-570.47299999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>25012.836953</v>
+        <v>25012.836953000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.948010</v>
+        <v>6.94801</v>
       </c>
       <c r="BU12" s="1">
-        <v>1601.070000</v>
+        <v>1601.07</v>
       </c>
       <c r="BV12" s="1">
-        <v>-818.701000</v>
+        <v>-818.70100000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>25023.670315</v>
+        <v>25023.670314999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.951020</v>
+        <v>6.9510199999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.310000</v>
+        <v>1750.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1088.360000</v>
+        <v>-1088.3599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>25035.628122</v>
+        <v>25035.628121999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.954341</v>
+        <v>6.9543410000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>2161.320000</v>
+        <v>2161.3200000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1745.700000</v>
+        <v>-1745.7</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>24863.973661</v>
       </c>
       <c r="B13" s="1">
-        <v>6.906659</v>
+        <v>6.9066590000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.950000</v>
+        <v>1143.95</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.132000</v>
+        <v>-261.13200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>24874.412495</v>
       </c>
       <c r="G13" s="1">
-        <v>6.909559</v>
+        <v>6.9095589999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.360000</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.731000</v>
+        <v>-218.73099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>24884.907811</v>
+        <v>24884.907811000001</v>
       </c>
       <c r="L13" s="1">
-        <v>6.912474</v>
+        <v>6.9124739999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.946000</v>
+        <v>-150.946</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>24895.446340</v>
+        <v>24895.446339999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.915402</v>
+        <v>6.9154020000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.851000</v>
+        <v>-128.851</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>24906.320101</v>
+        <v>24906.320101000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.918422</v>
+        <v>6.9184219999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1208.020000</v>
+        <v>1208.02</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.515000</v>
+        <v>-107.515</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>24917.172071</v>
+        <v>24917.172071000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.921437</v>
+        <v>6.9214370000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.326300</v>
+        <v>-90.326300000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>24927.596986</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.924332</v>
+        <v>6.9243319999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.340800</v>
+        <v>-85.340800000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>24938.083930</v>
+        <v>24938.083930000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.927246</v>
+        <v>6.9272460000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.570000</v>
+        <v>1226.57</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.351200</v>
+        <v>-88.351200000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>24948.846589</v>
+        <v>24948.846589000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.930235</v>
+        <v>6.9302349999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.954900</v>
+        <v>-99.954899999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>24959.894516</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.933304</v>
+        <v>6.9333039999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.918000</v>
+        <v>-118.91800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>24970.910128</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.936364</v>
+        <v>6.9363640000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.115000</v>
+        <v>-136.11500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>24981.458547</v>
+        <v>24981.458546999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.939294</v>
+        <v>6.9392940000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.670000</v>
+        <v>1291.67</v>
       </c>
       <c r="BG13" s="1">
-        <v>-216.790000</v>
+        <v>-216.79</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>24992.047636</v>
+        <v>24992.047635999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.942235</v>
+        <v>6.9422350000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="BL13" s="1">
-        <v>-351.240000</v>
+        <v>-351.24</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>25002.336150</v>
+        <v>25002.336149999999</v>
       </c>
       <c r="BO13" s="1">
         <v>6.945093</v>
       </c>
       <c r="BP13" s="1">
-        <v>1472.130000</v>
+        <v>1472.13</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.414000</v>
+        <v>-570.41399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>25013.247678</v>
@@ -3518,240 +3934,240 @@
         <v>6.948124</v>
       </c>
       <c r="BU13" s="1">
-        <v>1601.180000</v>
+        <v>1601.18</v>
       </c>
       <c r="BV13" s="1">
-        <v>-818.703000</v>
+        <v>-818.70299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>25024.108538</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.951141</v>
+        <v>6.9511409999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1750.460000</v>
+        <v>1750.46</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1088.410000</v>
+        <v>-1088.4100000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>25036.148426</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.954486</v>
+        <v>6.9544860000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2160.750000</v>
+        <v>2160.75</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1745.810000</v>
+        <v>-1745.81</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>24864.313421</v>
+        <v>24864.313420999999</v>
       </c>
       <c r="B14" s="1">
-        <v>6.906754</v>
+        <v>6.9067540000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.270000</v>
+        <v>1144.27</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.787000</v>
+        <v>-260.78699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>24874.755726</v>
+        <v>24874.755725999999</v>
       </c>
       <c r="G14" s="1">
-        <v>6.909654</v>
+        <v>6.9096539999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.940000</v>
+        <v>1165.94</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.180000</v>
+        <v>-218.18</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>24885.255537</v>
+        <v>24885.255537000001</v>
       </c>
       <c r="L14" s="1">
-        <v>6.912571</v>
+        <v>6.9125709999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.120000</v>
+        <v>1193.1199999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.319000</v>
+        <v>-151.31899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>24895.795987</v>
+        <v>24895.795987000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.915499</v>
+        <v>6.9154989999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.740000</v>
+        <v>-128.74</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>24907.006597</v>
       </c>
       <c r="V14" s="1">
-        <v>6.918613</v>
+        <v>6.9186129999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.060000</v>
+        <v>1208.06</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.452000</v>
+        <v>-107.452</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>24917.517819</v>
+        <v>24917.517819000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.921533</v>
+        <v>6.9215330000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.130700</v>
+        <v>-90.130700000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>24927.941705</v>
+        <v>24927.941705000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.924428</v>
+        <v>6.9244279999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.334800</v>
+        <v>-85.334800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24938.430141</v>
+        <v>24938.430141000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.927342</v>
+        <v>6.9273420000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.550000</v>
+        <v>1226.55</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.362200</v>
+        <v>-88.362200000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>24949.210362</v>
+        <v>24949.210362000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.930336</v>
+        <v>6.9303359999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.949900</v>
+        <v>-99.9499</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>24960.567053</v>
+        <v>24960.567052999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.933491</v>
+        <v>6.9334910000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.909000</v>
+        <v>-118.90900000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>24971.328256</v>
+        <v>24971.328256000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.936480</v>
+        <v>6.9364800000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.350000</v>
+        <v>1252.3499999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.090000</v>
+        <v>-136.09</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>24981.897507</v>
+        <v>24981.897507000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.939416</v>
+        <v>6.9394159999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-216.768000</v>
+        <v>-216.768</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>24992.410211</v>
+        <v>24992.410210999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.942336</v>
+        <v>6.9423360000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL14" s="1">
-        <v>-351.271000</v>
+        <v>-351.27100000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>25002.747334</v>
@@ -3760,1994 +4176,1994 @@
         <v>6.945208</v>
       </c>
       <c r="BP14" s="1">
-        <v>1472.100000</v>
+        <v>1472.1</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.405000</v>
+        <v>-570.40499999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>25013.676183</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.948243</v>
+        <v>6.9482429999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1601.330000</v>
+        <v>1601.33</v>
       </c>
       <c r="BV14" s="1">
-        <v>-818.801000</v>
+        <v>-818.80100000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>25024.565352</v>
+        <v>25024.565352000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.951268</v>
+        <v>6.9512679999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1750.400000</v>
+        <v>1750.4</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1088.160000</v>
+        <v>-1088.1600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>25036.695514</v>
+        <v>25036.695513999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.954638</v>
+        <v>6.9546380000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2159.580000</v>
+        <v>2159.58</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1744.910000</v>
+        <v>-1744.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>24864.663100</v>
+        <v>24864.663100000002</v>
       </c>
       <c r="B15" s="1">
-        <v>6.906851</v>
+        <v>6.9068509999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.920000</v>
+        <v>1143.92</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.104000</v>
+        <v>-261.10399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>24875.100921</v>
+        <v>24875.100921000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.909750</v>
+        <v>6.9097499999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.680000</v>
+        <v>1165.68</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.650000</v>
+        <v>-218.65</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>24885.943985</v>
+        <v>24885.943985000002</v>
       </c>
       <c r="L15" s="1">
-        <v>6.912762</v>
+        <v>6.9127619999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.350000</v>
+        <v>1193.3499999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.986000</v>
+        <v>-150.98599999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>24896.492867</v>
+        <v>24896.492867000001</v>
       </c>
       <c r="Q15" s="1">
         <v>6.915692</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.715000</v>
+        <v>-128.715</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>24907.349300</v>
+        <v>24907.349300000002</v>
       </c>
       <c r="V15" s="1">
-        <v>6.918708</v>
+        <v>6.9187079999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.990000</v>
+        <v>1207.99</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.517000</v>
+        <v>-107.517</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>24917.867002</v>
+        <v>24917.867001999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.921630</v>
+        <v>6.9216300000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.028600</v>
+        <v>-90.028599999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>24928.283976</v>
+        <v>24928.283975999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.924523</v>
+        <v>6.9245229999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.367500</v>
+        <v>-85.367500000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>24939.091274</v>
+        <v>24939.091273999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.927525</v>
+        <v>6.9275250000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.610000</v>
+        <v>1226.6099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.380400</v>
+        <v>-88.380399999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>24949.877094</v>
+        <v>24949.877093999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.930521</v>
+        <v>6.9305209999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.965100</v>
+        <v>-99.965100000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>24960.981709</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.933606</v>
+        <v>6.9336060000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.912000</v>
+        <v>-118.91200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>24971.630815</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.936564</v>
+        <v>6.9365639999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.350000</v>
+        <v>1252.3499999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.089000</v>
+        <v>-136.089</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>24982.268049</v>
+        <v>24982.268048999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.939519</v>
+        <v>6.9395189999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-216.778000</v>
+        <v>-216.77799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>24992.785187</v>
+        <v>24992.785187000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.942440</v>
+        <v>6.9424400000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="BL15" s="1">
-        <v>-351.255000</v>
+        <v>-351.255</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>25003.144661</v>
+        <v>25003.144660999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.945318</v>
+        <v>6.9453180000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1472.110000</v>
+        <v>1472.11</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.365000</v>
+        <v>-570.36500000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>25014.089885</v>
+        <v>25014.089885000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.948358</v>
+        <v>6.9483579999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1601.360000</v>
+        <v>1601.36</v>
       </c>
       <c r="BV15" s="1">
-        <v>-818.738000</v>
+        <v>-818.73800000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>25025.284568</v>
+        <v>25025.284567999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.951468</v>
+        <v>6.9514680000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1750.270000</v>
+        <v>1750.27</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1088.310000</v>
+        <v>-1088.31</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>25037.227224</v>
+        <v>25037.227223999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.954785</v>
+        <v>6.9547850000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2161.920000</v>
+        <v>2161.92</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1745.690000</v>
+        <v>-1745.69</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>24865.346092</v>
       </c>
       <c r="B16" s="1">
-        <v>6.907041</v>
+        <v>6.9070410000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.280000</v>
+        <v>1144.28</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.681000</v>
+        <v>-260.68099999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>24875.788894</v>
+        <v>24875.788894000001</v>
       </c>
       <c r="G16" s="1">
-        <v>6.909941</v>
+        <v>6.9099409999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.710000</v>
+        <v>1165.71</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.333000</v>
+        <v>-218.333</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>24886.289664</v>
       </c>
       <c r="L16" s="1">
-        <v>6.912858</v>
+        <v>6.9128579999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.500000</v>
+        <v>1193.5</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.328000</v>
+        <v>-151.328</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>24896.842547</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.915790</v>
+        <v>6.9157900000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.740000</v>
+        <v>-128.74</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>24907.695013</v>
       </c>
       <c r="V16" s="1">
-        <v>6.918804</v>
+        <v>6.9188039999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1208.070000</v>
+        <v>1208.07</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.504000</v>
+        <v>-107.504</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>24918.515268</v>
+        <v>24918.515267999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.921810</v>
+        <v>6.9218099999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.088900</v>
+        <v>-90.088899999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>24928.925767</v>
+        <v>24928.925767000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.924702</v>
+        <v>6.9247019999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.408100</v>
+        <v>-85.408100000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>24939.476169</v>
+        <v>24939.476169000001</v>
       </c>
       <c r="AK16" s="1">
         <v>6.927632</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.341200</v>
+        <v>-88.341200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>24950.289947</v>
+        <v>24950.289947000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.930636</v>
+        <v>6.9306359999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.997500</v>
+        <v>-99.997500000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>24961.351229</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.933709</v>
+        <v>6.9337090000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.909000</v>
+        <v>-118.90900000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>24971.986943</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.936663</v>
+        <v>6.9366630000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.074000</v>
+        <v>-136.07400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>24982.630631</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.939620</v>
+        <v>6.9396199999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-216.781000</v>
+        <v>-216.78100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>24993.210789</v>
+        <v>24993.210789000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.942559</v>
+        <v>6.9425590000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1360.030000</v>
+        <v>1360.03</v>
       </c>
       <c r="BL16" s="1">
-        <v>-351.307000</v>
+        <v>-351.30700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>25003.563287</v>
+        <v>25003.563287000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.945434</v>
+        <v>6.9454339999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1472.090000</v>
+        <v>1472.09</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.418000</v>
+        <v>-570.41800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>25014.505495</v>
+        <v>25014.505495000001</v>
       </c>
       <c r="BT16" s="1">
         <v>6.948474</v>
       </c>
       <c r="BU16" s="1">
-        <v>1601.500000</v>
+        <v>1601.5</v>
       </c>
       <c r="BV16" s="1">
-        <v>-818.789000</v>
+        <v>-818.78899999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>25025.445264</v>
+        <v>25025.445264000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.951513</v>
+        <v>6.9515130000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.490000</v>
+        <v>1750.49</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1088.290000</v>
+        <v>-1088.29</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>25037.848744</v>
+        <v>25037.848743999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.954958</v>
+        <v>6.9549580000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>2161.080000</v>
+        <v>2161.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1743.430000</v>
+        <v>-1743.43</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>24865.687370</v>
+        <v>24865.68737</v>
       </c>
       <c r="B17" s="1">
-        <v>6.907135</v>
+        <v>6.9071350000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.130000</v>
+        <v>1144.1300000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.858000</v>
+        <v>-260.858</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>24876.133581</v>
+        <v>24876.133580999998</v>
       </c>
       <c r="G17" s="1">
         <v>6.910037</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.850000</v>
+        <v>1164.8499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.508000</v>
+        <v>-218.50800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>24886.637887</v>
+        <v>24886.637887000001</v>
       </c>
       <c r="L17" s="1">
-        <v>6.912955</v>
+        <v>6.9129550000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.300000</v>
+        <v>1193.3</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.360000</v>
+        <v>-151.36000000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>24897.189249</v>
+        <v>24897.189248999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.915886</v>
+        <v>6.9158860000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.040000</v>
+        <v>1201.04</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.781000</v>
+        <v>-128.78100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>24908.361634</v>
+        <v>24908.361634000001</v>
       </c>
       <c r="V17" s="1">
-        <v>6.918989</v>
+        <v>6.9189889999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.980000</v>
+        <v>1207.98</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.489000</v>
+        <v>-107.489</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>24918.914021</v>
+        <v>24918.914021000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.921921</v>
+        <v>6.9219210000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.040900</v>
+        <v>-90.040899999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>24929.316119</v>
+        <v>24929.316118999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.924810</v>
+        <v>6.9248099999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.354300</v>
+        <v>-85.354299999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>24939.826873</v>
+        <v>24939.826873000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.927730</v>
+        <v>6.9277300000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.366600</v>
+        <v>-88.366600000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>24950.673392</v>
+        <v>24950.673392000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.930743</v>
+        <v>6.9307429999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.973400</v>
+        <v>-99.973399999999998</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>24961.718268</v>
+        <v>24961.718268000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.933811</v>
+        <v>6.9338110000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.871000</v>
+        <v>-118.871</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>24972.398654</v>
+        <v>24972.398654000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.936777</v>
+        <v>6.9367770000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.089000</v>
+        <v>-136.089</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>24983.037808</v>
+        <v>24983.037808000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.939733</v>
+        <v>6.9397330000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-216.764000</v>
+        <v>-216.76400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>24993.533187</v>
+        <v>24993.533187000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.942648</v>
+        <v>6.9426480000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="BL17" s="1">
-        <v>-351.297000</v>
+        <v>-351.29700000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>25003.961077</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.945545</v>
+        <v>6.9455450000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1472.080000</v>
+        <v>1472.08</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.449000</v>
+        <v>-570.44899999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>25014.919158</v>
+        <v>25014.919158000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.948589</v>
+        <v>6.9485890000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1601.610000</v>
+        <v>1601.61</v>
       </c>
       <c r="BV17" s="1">
-        <v>-818.703000</v>
+        <v>-818.70299999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>25025.867847</v>
+        <v>25025.867847000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.951630</v>
+        <v>6.9516299999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.430000</v>
+        <v>1750.43</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1088.280000</v>
+        <v>-1088.28</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>25038.487558</v>
+        <v>25038.487558000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.955135</v>
+        <v>6.9551350000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>2159.960000</v>
+        <v>2159.96</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.670000</v>
+        <v>-1745.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>24866.035530</v>
+        <v>24866.035530000001</v>
       </c>
       <c r="B18" s="1">
-        <v>6.907232</v>
+        <v>6.9072319999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.320000</v>
+        <v>1144.32</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.564000</v>
+        <v>-260.56400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>24876.480812</v>
+        <v>24876.480812000002</v>
       </c>
       <c r="G18" s="1">
-        <v>6.910134</v>
+        <v>6.9101340000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.880000</v>
+        <v>1165.8800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.614000</v>
+        <v>-218.614</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>24887.289600</v>
+        <v>24887.2896</v>
       </c>
       <c r="L18" s="1">
-        <v>6.913136</v>
+        <v>6.9131359999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.330000</v>
+        <v>1193.33</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.277000</v>
+        <v>-151.27699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>24897.838048</v>
+        <v>24897.838048000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.916066</v>
+        <v>6.9160659999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.837000</v>
+        <v>-128.83699999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>24908.724707</v>
+        <v>24908.724707000001</v>
       </c>
       <c r="V18" s="1">
-        <v>6.919090</v>
+        <v>6.9190899999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.553000</v>
+        <v>-107.553</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>24919.262212</v>
+        <v>24919.262212000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.922017</v>
+        <v>6.9220170000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.873900</v>
+        <v>-89.873900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>24929.658359</v>
+        <v>24929.658359000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.924905</v>
+        <v>6.9249049999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.740000</v>
+        <v>1219.74</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.310400</v>
+        <v>-85.310400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>24940.175032</v>
+        <v>24940.175031999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.927826</v>
+        <v>6.9278259999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.353700</v>
+        <v>-88.353700000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>24951.033488</v>
+        <v>24951.033488000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.930843</v>
+        <v>6.9308430000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.925600</v>
+        <v>-99.925600000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>24962.138907</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.933927</v>
+        <v>6.9339269999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.906000</v>
+        <v>-118.90600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>24972.704653</v>
+        <v>24972.704653000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.936862</v>
+        <v>6.9368619999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.073000</v>
+        <v>-136.07300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>24983.352273</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.939820</v>
+        <v>6.9398200000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.660000</v>
+        <v>1291.6600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-216.792000</v>
+        <v>-216.792</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>24993.929490</v>
+        <v>24993.929489999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.942758</v>
+        <v>6.9427580000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1360.000000</v>
+        <v>1360</v>
       </c>
       <c r="BL18" s="1">
-        <v>-351.238000</v>
+        <v>-351.238</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>25004.382681</v>
+        <v>25004.382680999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.945662</v>
+        <v>6.9456619999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1472.090000</v>
+        <v>1472.09</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.455000</v>
+        <v>-570.45500000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>25015.331862</v>
+        <v>25015.331861999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.948703</v>
+        <v>6.9487030000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1601.530000</v>
+        <v>1601.53</v>
       </c>
       <c r="BV18" s="1">
-        <v>-818.668000</v>
+        <v>-818.66800000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>25026.316232</v>
+        <v>25026.316232000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.951755</v>
+        <v>6.9517550000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1750.390000</v>
+        <v>1750.39</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1088.280000</v>
+        <v>-1088.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>25039.024758</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.955285</v>
+        <v>6.9552849999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2162.570000</v>
+        <v>2162.5700000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1744.430000</v>
+        <v>-1744.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>24866.686282</v>
+        <v>24866.686281999999</v>
       </c>
       <c r="B19" s="1">
         <v>6.907413</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.120000</v>
+        <v>1144.1199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.048000</v>
+        <v>-261.048</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>24877.130582</v>
+        <v>24877.130582000002</v>
       </c>
       <c r="G19" s="1">
-        <v>6.910314</v>
+        <v>6.9103139999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.790000</v>
+        <v>1165.79</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.029000</v>
+        <v>-219.029</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>24887.675486</v>
       </c>
       <c r="L19" s="1">
-        <v>6.913243</v>
+        <v>6.9132429999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.290000</v>
+        <v>1193.29</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.312000</v>
+        <v>-151.31200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>24898.236341</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.916177</v>
+        <v>6.9161770000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.813000</v>
+        <v>-128.81299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>24909.068466</v>
+        <v>24909.068466000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.919186</v>
+        <v>6.9191859999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.524000</v>
+        <v>-107.524</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>24919.610900</v>
+        <v>24919.6109</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.922114</v>
+        <v>6.9221139999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.099600</v>
+        <v>-90.099599999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>24930.007046</v>
+        <v>24930.007045999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.925002</v>
+        <v>6.9250020000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.344900</v>
+        <v>-85.344899999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>24940.585720</v>
+        <v>24940.585719999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.927940</v>
+        <v>6.9279400000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.332600</v>
+        <v>-88.332599999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>24951.450089</v>
+        <v>24951.450089000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.930958</v>
+        <v>6.9309580000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.936000</v>
+        <v>-99.936000000000007</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>24962.445436</v>
+        <v>24962.445436000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.934013</v>
+        <v>6.9340130000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.887000</v>
+        <v>-118.887</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>24973.065245</v>
+        <v>24973.065245000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.936963</v>
+        <v>6.9369630000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.095000</v>
+        <v>-136.095</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>24983.711376</v>
+        <v>24983.711375999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.939920</v>
+        <v>6.9399199999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.630000</v>
+        <v>1291.6300000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-216.780000</v>
+        <v>-216.78</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>24994.309921</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.942864</v>
+        <v>6.9428640000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="BL19" s="1">
-        <v>-351.291000</v>
+        <v>-351.291</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>25004.780931</v>
+        <v>25004.780931000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.945772</v>
+        <v>6.9457719999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1472.090000</v>
+        <v>1472.09</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.411000</v>
+        <v>-570.41099999999994</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>25015.747515</v>
+        <v>25015.747514999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.948819</v>
+        <v>6.9488190000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1601.720000</v>
+        <v>1601.72</v>
       </c>
       <c r="BV19" s="1">
-        <v>-818.615000</v>
+        <v>-818.61500000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>25026.750726</v>
+        <v>25026.750725999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.951875</v>
+        <v>6.9518750000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1750.430000</v>
+        <v>1750.43</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1088.370000</v>
+        <v>-1088.3699999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>25039.567349</v>
+        <v>25039.567349000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.955435</v>
+        <v>6.9554349999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>2159.090000</v>
+        <v>2159.09</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1744.580000</v>
+        <v>-1744.58</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>24867.059769</v>
       </c>
       <c r="B20" s="1">
-        <v>6.907517</v>
+        <v>6.9075170000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.600000</v>
+        <v>1144.5999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.080000</v>
+        <v>-261.08</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>24877.513980</v>
+        <v>24877.51398</v>
       </c>
       <c r="G20" s="1">
-        <v>6.910421</v>
+        <v>6.9104210000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.020000</v>
+        <v>1166.02</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.532000</v>
+        <v>-218.53200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>24888.020701</v>
+        <v>24888.020701000001</v>
       </c>
       <c r="L20" s="1">
-        <v>6.913339</v>
+        <v>6.9133389999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.100000</v>
+        <v>1193.0999999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.147000</v>
+        <v>-151.14699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>24898.621696</v>
+        <v>24898.621695999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.916284</v>
+        <v>6.9162840000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.990000</v>
+        <v>1200.99</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.754000</v>
+        <v>-128.75399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>24909.413154</v>
+        <v>24909.413154000002</v>
       </c>
       <c r="V20" s="1">
-        <v>6.919281</v>
+        <v>6.9192809999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1208.050000</v>
+        <v>1208.05</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.546000</v>
+        <v>-107.54600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>24920.034483</v>
+        <v>24920.034482999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.922232</v>
+        <v>6.9222320000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.130500</v>
+        <v>-90.130499999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>24930.429142</v>
+        <v>24930.429142000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.925119</v>
+        <v>6.9251189999999996</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.346000</v>
+        <v>-85.346000000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>24940.881832</v>
+        <v>24940.881831999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.928023</v>
+        <v>6.9280229999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.363600</v>
+        <v>-88.363600000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>24951.754137</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.931043</v>
+        <v>6.9310429999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.979700</v>
+        <v>-99.979699999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>24962.812938</v>
+        <v>24962.812937999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.934115</v>
+        <v>6.9341150000000003</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.883000</v>
+        <v>-118.883</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>24973.422397</v>
+        <v>24973.422396999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.937062</v>
+        <v>6.9370620000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.086000</v>
+        <v>-136.08600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>24984.076462</v>
+        <v>24984.076462000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.940021</v>
+        <v>6.9400209999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-216.779000</v>
+        <v>-216.779</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>24995.059376</v>
+        <v>24995.059376000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.943072</v>
+        <v>6.9430719999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="BL20" s="1">
-        <v>-351.249000</v>
+        <v>-351.24900000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>25005.205408</v>
+        <v>25005.205408000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.945890</v>
+        <v>6.9458900000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1472.060000</v>
+        <v>1472.06</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.442000</v>
+        <v>-570.44200000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>25016.186933</v>
+        <v>25016.186933000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.948941</v>
+        <v>6.9489409999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV20" s="1">
-        <v>-818.491000</v>
+        <v>-818.49099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>25027.169846</v>
+        <v>25027.169846000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.951992</v>
+        <v>6.9519919999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1750.380000</v>
+        <v>1750.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1088.150000</v>
+        <v>-1088.1500000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>25040.109508</v>
+        <v>25040.109508000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.955586</v>
+        <v>6.9555860000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>2161.660000</v>
+        <v>2161.66</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1745.350000</v>
+        <v>-1745.35</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>24867.407001</v>
       </c>
       <c r="B21" s="1">
-        <v>6.907613</v>
+        <v>6.9076129999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.130000</v>
+        <v>1144.1300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.750000</v>
+        <v>-260.75</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>24877.858666</v>
       </c>
       <c r="G21" s="1">
-        <v>6.910516</v>
+        <v>6.9105160000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.690000</v>
+        <v>1165.69</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.448000</v>
+        <v>-218.44800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>24888.365757</v>
       </c>
       <c r="L21" s="1">
-        <v>6.913435</v>
+        <v>6.9134349999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.340000</v>
+        <v>1193.3399999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.356000</v>
+        <v>-151.35599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>24899.058671</v>
+        <v>24899.058670999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.916405</v>
+        <v>6.9164050000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.800000</v>
+        <v>-128.80000000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>24909.826321</v>
       </c>
       <c r="V21" s="1">
-        <v>6.919396</v>
+        <v>6.9193959999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.030000</v>
+        <v>1208.03</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.502000</v>
+        <v>-107.502</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>24920.310259</v>
+        <v>24920.310259000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.922308</v>
+        <v>6.9223080000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.191800</v>
+        <v>-90.191800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>24930.708911</v>
+        <v>24930.708911000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.925197</v>
+        <v>6.9251969999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.327000</v>
+        <v>-85.326999999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>24941.233532</v>
+        <v>24941.233531999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.928120</v>
+        <v>6.9281199999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.371000</v>
+        <v>-88.370999999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>24952.115225</v>
+        <v>24952.115225000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.931143</v>
+        <v>6.9311429999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.948100</v>
+        <v>-99.948099999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>24963.175807</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.934216</v>
+        <v>6.9342160000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.911000</v>
+        <v>-118.911</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>24974.133145</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.937259</v>
+        <v>6.9372590000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.080000</v>
+        <v>-136.08000000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>24984.796130</v>
+        <v>24984.796129999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.940221</v>
+        <v>6.9402210000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-216.789000</v>
+        <v>-216.78899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>24995.433856</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.943176</v>
+        <v>6.9431760000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="BL21" s="1">
-        <v>-351.293000</v>
+        <v>-351.29300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>25005.600367</v>
+        <v>25005.600366999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.946000</v>
+        <v>6.9459999999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1472.140000</v>
+        <v>1472.14</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.377000</v>
+        <v>-570.37699999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>25016.613492</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.949059</v>
+        <v>6.9490590000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1601.790000</v>
+        <v>1601.79</v>
       </c>
       <c r="BV21" s="1">
-        <v>-818.429000</v>
+        <v>-818.42899999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>25027.900453</v>
+        <v>25027.900452999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.952195</v>
+        <v>6.9521949999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1750.410000</v>
+        <v>1750.41</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1088.160000</v>
+        <v>-1088.1600000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>25040.966563</v>
+        <v>25040.966563000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.955824</v>
+        <v>6.9558239999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2159.940000</v>
+        <v>2159.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1745.300000</v>
+        <v>-1745.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>24867.750201</v>
+        <v>24867.750200999999</v>
       </c>
       <c r="B22" s="1">
-        <v>6.907708</v>
+        <v>6.9077080000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.080000</v>
+        <v>1144.08</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.822000</v>
+        <v>-260.822</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>24878.205409</v>
+        <v>24878.205408999998</v>
       </c>
       <c r="G22" s="1">
-        <v>6.910613</v>
+        <v>6.9106129999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.190000</v>
+        <v>1165.19</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.194000</v>
+        <v>-219.19399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>24888.782557</v>
+        <v>24888.782556999999</v>
       </c>
       <c r="L22" s="1">
         <v>6.913551</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.380000</v>
+        <v>1193.3800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.191000</v>
+        <v>-151.191</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>24899.627582</v>
+        <v>24899.627582000001</v>
       </c>
       <c r="Q22" s="1">
         <v>6.916563</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.030000</v>
+        <v>1201.03</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.847000</v>
+        <v>-128.84700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>24910.121472</v>
+        <v>24910.121471999999</v>
       </c>
       <c r="V22" s="1">
-        <v>6.919478</v>
+        <v>6.9194779999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1208.020000</v>
+        <v>1208.02</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.498000</v>
+        <v>-107.498</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>24920.655971</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.922404</v>
+        <v>6.9224040000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.278800</v>
+        <v>-90.278800000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>24931.054596</v>
+        <v>24931.054596000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.925293</v>
+        <v>6.9252929999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.355600</v>
+        <v>-85.355599999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>24941.580727</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.928217</v>
+        <v>6.9282170000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.335000</v>
+        <v>-88.334999999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>24952.476808</v>
+        <v>24952.476807999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.931244</v>
+        <v>6.9312440000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.928600</v>
+        <v>-99.928600000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>24963.905131</v>
@@ -5756,542 +6172,542 @@
         <v>6.934418</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.907000</v>
+        <v>-118.907</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>24974.498683</v>
+        <v>24974.498683000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.937361</v>
+        <v>6.9373610000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.107000</v>
+        <v>-136.107</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>24985.158205</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.940322</v>
+        <v>6.9403220000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.640000</v>
+        <v>1291.6400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-216.793000</v>
+        <v>-216.79300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>24995.810815</v>
+        <v>24995.810815000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.943281</v>
+        <v>6.9432809999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.990000</v>
+        <v>1359.99</v>
       </c>
       <c r="BL22" s="1">
-        <v>-351.277000</v>
+        <v>-351.27699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>25006.014023</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.946115</v>
+        <v>6.9461149999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1472.100000</v>
+        <v>1472.1</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.428000</v>
+        <v>-570.428</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>25017.326739</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.949257</v>
+        <v>6.9492570000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1601.830000</v>
+        <v>1601.83</v>
       </c>
       <c r="BV22" s="1">
-        <v>-818.352000</v>
+        <v>-818.35199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>25028.018004</v>
+        <v>25028.018004000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.952227</v>
+        <v>6.9522269999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1750.470000</v>
+        <v>1750.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1088.190000</v>
+        <v>-1088.19</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>25041.187284</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.955885</v>
+        <v>6.9558850000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>2159.550000</v>
+        <v>2159.5500000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1745.360000</v>
+        <v>-1745.36</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>24868.169321</v>
+        <v>24868.169321000001</v>
       </c>
       <c r="B23" s="1">
-        <v>6.907825</v>
+        <v>6.9078249999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.140000</v>
+        <v>1144.1400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.885000</v>
+        <v>-260.88499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>24878.626009</v>
       </c>
       <c r="G23" s="1">
-        <v>6.910729</v>
+        <v>6.9107289999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.600000</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.937000</v>
+        <v>-217.93700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>24889.080190</v>
+        <v>24889.080190000001</v>
       </c>
       <c r="L23" s="1">
-        <v>6.913633</v>
+        <v>6.9136329999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.140000</v>
+        <v>1193.1400000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.330000</v>
+        <v>-151.33000000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>24899.976776</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.916660</v>
+        <v>6.9166600000000003</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.814000</v>
+        <v>-128.81399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>24910.466171</v>
       </c>
       <c r="V23" s="1">
-        <v>6.919574</v>
+        <v>6.9195739999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1208.140000</v>
+        <v>1208.1400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.589000</v>
+        <v>-107.589</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>24921.003699</v>
+        <v>24921.003699000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.922501</v>
+        <v>6.9225009999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.077900</v>
+        <v>-90.0779</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>24931.398356</v>
+        <v>24931.398356000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.925388</v>
+        <v>6.9253879999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.381900</v>
+        <v>-85.381900000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>24942.278079</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.928411</v>
+        <v>6.9284109999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.610000</v>
+        <v>1226.6099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.373000</v>
+        <v>-88.373000000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>24953.195015</v>
+        <v>24953.195015000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.931443</v>
+        <v>6.9314429999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.959400</v>
+        <v>-99.959400000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>24964.295977</v>
+        <v>24964.295977000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.934527</v>
+        <v>6.9345270000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.880000</v>
+        <v>-118.88</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>24974.858780</v>
+        <v>24974.858779999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.937461</v>
+        <v>6.9374609999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.096000</v>
+        <v>-136.096</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>24985.519326</v>
+        <v>24985.519326000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.940422</v>
+        <v>6.9404219999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.670000</v>
+        <v>1291.67</v>
       </c>
       <c r="BG23" s="1">
-        <v>-216.779000</v>
+        <v>-216.779</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>24996.490302</v>
+        <v>24996.490301999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.943470</v>
+        <v>6.9434699999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="BL23" s="1">
-        <v>-351.292000</v>
+        <v>-351.29199999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>25006.720288</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.946311</v>
+        <v>6.9463109999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1472.150000</v>
+        <v>1472.15</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.458000</v>
+        <v>-570.45799999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>25017.457683</v>
+        <v>25017.457683000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.949294</v>
+        <v>6.9492940000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1601.810000</v>
+        <v>1601.81</v>
       </c>
       <c r="BV23" s="1">
-        <v>-818.218000</v>
+        <v>-818.21799999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>25028.466886</v>
+        <v>25028.466885999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.952352</v>
+        <v>6.9523520000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.260000</v>
+        <v>1750.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1088.240000</v>
+        <v>-1088.24</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>25041.708083</v>
+        <v>25041.708083000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.956030</v>
+        <v>6.9560300000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2161.790000</v>
+        <v>2161.79</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1745.670000</v>
+        <v>-1745.67</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>24868.445096</v>
+        <v>24868.445095999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.907901</v>
+        <v>6.9079009999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.990000</v>
+        <v>1143.99</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.726000</v>
+        <v>-260.726</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>24878.899274</v>
+        <v>24878.899273999999</v>
       </c>
       <c r="G24" s="1">
-        <v>6.910805</v>
+        <v>6.9108049999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.610000</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.375000</v>
+        <v>-218.375</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>24889.425899</v>
+        <v>24889.425899000002</v>
       </c>
       <c r="L24" s="1">
         <v>6.913729</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.450000</v>
+        <v>1193.45</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.180000</v>
+        <v>-151.18</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>24900.326972</v>
+        <v>24900.326971999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.916757</v>
+        <v>6.9167569999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.793000</v>
+        <v>-128.79300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>24910.808895</v>
+        <v>24910.808894999998</v>
       </c>
       <c r="V24" s="1">
-        <v>6.919669</v>
+        <v>6.9196689999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.560000</v>
+        <v>-107.56</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>24921.701042</v>
+        <v>24921.701042000001</v>
       </c>
       <c r="AA24" s="1">
         <v>6.922695</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.106200</v>
+        <v>-90.106200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>24932.083827</v>
+        <v>24932.083826999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.925579</v>
+        <v>6.9255789999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.325200</v>
+        <v>-85.325199999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>24942.627533</v>
+        <v>24942.627532999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.928508</v>
+        <v>6.9285079999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.327900</v>
+        <v>-88.3279</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>24953.553624</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.931543</v>
+        <v>6.9315429999999996</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.330000</v>
+        <v>1234.33</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.946100</v>
+        <v>-99.946100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>24964.660078</v>
+        <v>24964.660078000001</v>
       </c>
       <c r="AU24" s="1">
         <v>6.934628</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.887000</v>
+        <v>-118.887</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>24975.528378</v>
+        <v>24975.528377999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.937647</v>
+        <v>6.9376470000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.091000</v>
+        <v>-136.09100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>24986.184427</v>
@@ -6300,604 +6716,605 @@
         <v>6.940607</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.680000</v>
+        <v>1291.68</v>
       </c>
       <c r="BG24" s="1">
-        <v>-216.799000</v>
+        <v>-216.79900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>24996.600414</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.943500</v>
+        <v>6.9435000000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="BL24" s="1">
-        <v>-351.233000</v>
+        <v>-351.233</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>25007.261919</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.946462</v>
+        <v>6.9464620000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1472.050000</v>
+        <v>1472.05</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.438000</v>
+        <v>-570.43799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>25017.894194</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.949415</v>
+        <v>6.9494150000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1601.840000</v>
+        <v>1601.84</v>
       </c>
       <c r="BV24" s="1">
-        <v>-818.062000</v>
+        <v>-818.06200000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>25028.897411</v>
+        <v>25028.897411000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.952472</v>
+        <v>6.9524720000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1750.370000</v>
+        <v>1750.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1088.280000</v>
+        <v>-1088.28</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>25042.222466</v>
+        <v>25042.222465999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.956173</v>
+        <v>6.9561729999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>2161.850000</v>
+        <v>2161.85</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1743.490000</v>
+        <v>-1743.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>24868.789319</v>
       </c>
       <c r="B25" s="1">
-        <v>6.907997</v>
+        <v>6.9079969999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.080000</v>
+        <v>1144.08</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.910000</v>
+        <v>-260.91000000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>24879.243534</v>
+        <v>24879.243534000001</v>
       </c>
       <c r="G25" s="1">
         <v>6.910901</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.650000</v>
+        <v>1165.6500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.222000</v>
+        <v>-218.22200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>24889.769596</v>
+        <v>24889.769595999998</v>
       </c>
       <c r="L25" s="1">
-        <v>6.913825</v>
+        <v>6.9138250000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.300000</v>
+        <v>1193.3</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.389000</v>
+        <v>-151.38900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>24901.023355</v>
+        <v>24901.023355000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.916951</v>
+        <v>6.9169510000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.980000</v>
+        <v>1200.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.783000</v>
+        <v>-128.78299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>24911.497353</v>
+        <v>24911.497352999999</v>
       </c>
       <c r="V25" s="1">
-        <v>6.919860</v>
+        <v>6.9198599999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1208.050000</v>
+        <v>1208.05</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.597000</v>
+        <v>-107.59699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>24922.051250</v>
+        <v>24922.05125</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.922792</v>
+        <v>6.9227920000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.180000</v>
+        <v>-90.18</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>24932.429544</v>
+        <v>24932.429543999999</v>
       </c>
       <c r="AF25" s="1">
         <v>6.925675</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.346700</v>
+        <v>-85.346699999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>24942.975973</v>
+        <v>24942.975973000001</v>
       </c>
       <c r="AK25" s="1">
         <v>6.928604</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.380800</v>
+        <v>-88.380799999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>24954.212806</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.931726</v>
+        <v>6.9317260000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.943200</v>
+        <v>-99.943200000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>24965.332615</v>
+        <v>24965.332614999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.934815</v>
+        <v>6.9348150000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.912000</v>
+        <v>-118.91200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>24975.937119</v>
+        <v>24975.937118999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.937760</v>
+        <v>6.9377599999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.097000</v>
+        <v>-136.09700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>24986.633803</v>
+        <v>24986.633803000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.940732</v>
+        <v>6.9407319999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-216.761000</v>
+        <v>-216.761</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>24996.968942</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.943602</v>
+        <v>6.9436020000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1360.000000</v>
+        <v>1360</v>
       </c>
       <c r="BL25" s="1">
-        <v>-351.282000</v>
+        <v>-351.28199999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>25007.679590</v>
+        <v>25007.67959</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.946578</v>
+        <v>6.9465779999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1472.130000</v>
+        <v>1472.13</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.394000</v>
+        <v>-570.39400000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>25018.321713</v>
+        <v>25018.321713000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.949534</v>
+        <v>6.9495339999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1601.680000</v>
+        <v>1601.68</v>
       </c>
       <c r="BV25" s="1">
-        <v>-818.047000</v>
+        <v>-818.04700000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>25029.318517</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.952588</v>
+        <v>6.9525880000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1750.340000</v>
+        <v>1750.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1088.080000</v>
+        <v>-1088.08</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>25042.741251</v>
+        <v>25042.741250999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.956317</v>
+        <v>6.9563170000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>2159.830000</v>
+        <v>2159.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1743.620000</v>
+        <v>-1743.62</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>24869.132054</v>
+        <v>24869.132054000002</v>
       </c>
       <c r="B26" s="1">
-        <v>6.908092</v>
+        <v>6.9080919999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.280000</v>
+        <v>1144.28</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.785000</v>
+        <v>-260.78500000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>24879.592680</v>
+        <v>24879.592680000002</v>
       </c>
       <c r="G26" s="1">
-        <v>6.910998</v>
+        <v>6.9109980000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.080000</v>
+        <v>1166.08</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.574000</v>
+        <v>-218.57400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>24890.461515</v>
+        <v>24890.461514999999</v>
       </c>
       <c r="L26" s="1">
-        <v>6.914017</v>
+        <v>6.9140170000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.400000</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.514000</v>
+        <v>-151.51400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>24901.372508</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.917048</v>
+        <v>6.9170480000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.768000</v>
+        <v>-128.768</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>24911.837103</v>
+        <v>24911.837103000002</v>
       </c>
       <c r="V26" s="1">
-        <v>6.919955</v>
+        <v>6.9199549999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.060000</v>
+        <v>1208.06</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.557000</v>
+        <v>-107.557</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>24922.398423</v>
+        <v>24922.398422999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.922888</v>
+        <v>6.9228880000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.951700</v>
+        <v>-89.951700000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>24932.771250</v>
+        <v>24932.771250000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.925770</v>
+        <v>6.92577</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.325500</v>
+        <v>-85.325500000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>24943.637604</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.928788</v>
+        <v>6.9287879999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.610000</v>
+        <v>1226.6099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.369400</v>
+        <v>-88.369399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>24954.670151</v>
+        <v>24954.670150999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.931853</v>
+        <v>6.9318530000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.340000</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.971000</v>
+        <v>-99.971000000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>24965.752231</v>
+        <v>24965.752230999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.934931</v>
+        <v>6.9349309999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.888000</v>
+        <v>-118.88800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>24976.320489</v>
+        <v>24976.320489000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.937867</v>
+        <v>6.9378669999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.360000</v>
+        <v>1252.3599999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.081000</v>
+        <v>-136.08099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>24986.997868</v>
+        <v>24986.997867999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.940833</v>
+        <v>6.9408329999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.650000</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-216.771000</v>
+        <v>-216.77099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>24997.342925</v>
+        <v>24997.342925000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.943706</v>
+        <v>6.9437059999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1360.040000</v>
+        <v>1360.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-351.275000</v>
+        <v>-351.27499999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>25008.094207</v>
+        <v>25008.094206999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.946693</v>
+        <v>6.9466929999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1472.120000</v>
+        <v>1472.12</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.426000</v>
+        <v>-570.42600000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>25018.736874</v>
+        <v>25018.736873999998</v>
       </c>
       <c r="BT26" s="1">
         <v>6.949649</v>
       </c>
       <c r="BU26" s="1">
-        <v>1601.700000</v>
+        <v>1601.7</v>
       </c>
       <c r="BV26" s="1">
-        <v>-818.024000</v>
+        <v>-818.024</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>25029.740610</v>
+        <v>25029.740610000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.952706</v>
+        <v>6.9527060000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1750.380000</v>
+        <v>1750.38</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1088.290000</v>
+        <v>-1088.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>25043.256593</v>
+        <v>25043.256592999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.956460</v>
+        <v>6.9564599999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2160.220000</v>
+        <v>2160.2199999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1743.640000</v>
+        <v>-1743.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>